--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC698209-C7B2-40B9-A2B3-6EA351EDAC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53455A6D-1E80-4179-814A-F86CB7EE268C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflows" sheetId="4" r:id="rId1"/>
-    <sheet name="Statements of Revenues, Expense" sheetId="3" r:id="rId2"/>
-    <sheet name="Statement of Net Position" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Statements of Revenues, Expense" sheetId="3" r:id="rId3"/>
+    <sheet name="Statement of Net Position" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -456,13 +462,16 @@
   </si>
   <si>
     <t>Total Net Position</t>
+  </si>
+  <si>
+    <t>Tuitionfees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,22 +972,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EEE0AD-BF36-4F79-89AD-7234422D9C52}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="A1:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1822,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1868,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -2229,6 +2238,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F10A59-B50C-4A91-9401-307A1DA3C5C2}">
+  <dimension ref="A1:BF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3">
+        <v>508876</v>
+      </c>
+      <c r="C2" s="2">
+        <v>985247</v>
+      </c>
+      <c r="D2" s="2">
+        <v>587539</v>
+      </c>
+      <c r="E2" s="2">
+        <v>950398</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1603488</v>
+      </c>
+      <c r="G2" s="2">
+        <v>480477</v>
+      </c>
+      <c r="H2" s="2">
+        <v>76927</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8882</v>
+      </c>
+      <c r="J2" s="2">
+        <v>17660</v>
+      </c>
+      <c r="K2" s="2">
+        <v>441563</v>
+      </c>
+      <c r="L2" s="2">
+        <v>35360</v>
+      </c>
+      <c r="M2" s="2">
+        <v>59893</v>
+      </c>
+      <c r="N2" s="2">
+        <v>293383</v>
+      </c>
+      <c r="O2" s="2">
+        <v>190651</v>
+      </c>
+      <c r="P2" s="3">
+        <v>922690</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>780221</v>
+      </c>
+      <c r="R2" s="2">
+        <v>7004</v>
+      </c>
+      <c r="S2" s="2">
+        <v>52308</v>
+      </c>
+      <c r="T2" s="2">
+        <v>84454</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1297</v>
+      </c>
+      <c r="V2" s="3">
+        <v>519087</v>
+      </c>
+      <c r="W2" s="2">
+        <v>278041</v>
+      </c>
+      <c r="X2" s="2">
+        <v>47633</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>4252</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1430</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>25500</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>4562</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>382048</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>254910</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>103170</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>137517</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>7224</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1350013</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>47623</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1404860</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>112497</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>430389</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>317892</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>508876</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>817436</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>528287</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>276638</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>251649</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>29219</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>23761</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>5335</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>57315</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>26702</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>10915</v>
+      </c>
+      <c r="AY2" s="9">
+        <v>98402</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>1782</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>76839</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>139406</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>52279</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>36558</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>14331</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3">
+        <v>342853</v>
+      </c>
+      <c r="C3" s="2">
+        <v>974631</v>
+      </c>
+      <c r="D3" s="2">
+        <v>569408</v>
+      </c>
+      <c r="E3" s="2">
+        <v>848595</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1690799</v>
+      </c>
+      <c r="G3" s="2">
+        <v>402823</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50402</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8068</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8751</v>
+      </c>
+      <c r="K3" s="2">
+        <v>416628</v>
+      </c>
+      <c r="L3" s="2">
+        <v>30573</v>
+      </c>
+      <c r="M3" s="2">
+        <v>68497</v>
+      </c>
+      <c r="N3" s="2">
+        <v>194419</v>
+      </c>
+      <c r="O3" s="2">
+        <v>194419</v>
+      </c>
+      <c r="P3" s="3">
+        <v>880530</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>105380</v>
+      </c>
+      <c r="R3" s="2">
+        <v>6688</v>
+      </c>
+      <c r="S3" s="2">
+        <v>38809</v>
+      </c>
+      <c r="T3" s="2">
+        <v>81590</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1549</v>
+      </c>
+      <c r="V3" s="3">
+        <v>528300</v>
+      </c>
+      <c r="W3" s="2">
+        <v>105380</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2">
+        <v>67437</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>8945</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>487912</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>96325</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>125825</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>132630</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1244020</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>19774</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1396424</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>123253</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>553642</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>430389</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>342853</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>831578</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>493978</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>261417</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>232561</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>3547</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>2734</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>41749</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>67108</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>33411</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>9637</v>
+      </c>
+      <c r="AY3" s="9">
+        <v>74375</v>
+      </c>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4">
+        <v>13994</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>57532</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>49110</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>6695</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
+        <v>488027</v>
+      </c>
+      <c r="C4" s="2">
+        <v>852889</v>
+      </c>
+      <c r="D4" s="2">
+        <v>814018</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1131219</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1461100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>401143</v>
+      </c>
+      <c r="H4" s="2">
+        <v>47675</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8105</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6989</v>
+      </c>
+      <c r="K4" s="2">
+        <v>357968</v>
+      </c>
+      <c r="L4" s="2">
+        <v>25118</v>
+      </c>
+      <c r="M4" s="2">
+        <v>76221</v>
+      </c>
+      <c r="N4" s="2">
+        <v>428012</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>834480</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>720817</v>
+      </c>
+      <c r="R4" s="2">
+        <v>6602</v>
+      </c>
+      <c r="S4" s="2">
+        <v>32856</v>
+      </c>
+      <c r="T4" s="2">
+        <v>74050</v>
+      </c>
+      <c r="U4" s="2">
+        <v>155</v>
+      </c>
+      <c r="V4" s="3">
+        <v>344331</v>
+      </c>
+      <c r="W4" s="2">
+        <v>236666</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
+        <v>620</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>121333</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>9332</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>475488</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>120353</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>115201</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>52932</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1124176</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>10605</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1187713</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>50810</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>604452</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>553642</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>488027</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>718364</v>
+      </c>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="8">
+        <v>245300</v>
+      </c>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="9">
+        <v>33994</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>44153</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>26041</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>11846</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>46969</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>21453</v>
+      </c>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="3">
+        <v>191178</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>60853</v>
+      </c>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4">
+        <v>85632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="3">
+        <v>570853</v>
+      </c>
+      <c r="C5" s="2">
+        <v>829654</v>
+      </c>
+      <c r="D5" s="2">
+        <v>791553</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1295707</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1444036</v>
+      </c>
+      <c r="G5" s="2">
+        <v>354120</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44635</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5596</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7099</v>
+      </c>
+      <c r="K5" s="2">
+        <v>369715</v>
+      </c>
+      <c r="L5" s="2">
+        <v>24328</v>
+      </c>
+      <c r="M5" s="2">
+        <v>57451</v>
+      </c>
+      <c r="N5" s="2">
+        <v>493461</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
+        <v>804330</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>724985</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6827</v>
+      </c>
+      <c r="S5" s="2">
+        <v>26831</v>
+      </c>
+      <c r="T5" s="2">
+        <v>75743</v>
+      </c>
+      <c r="U5" s="2">
+        <v>527</v>
+      </c>
+      <c r="V5" s="3">
+        <v>516310</v>
+      </c>
+      <c r="W5" s="2">
+        <v>8688</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>121297</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>58759</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>191039</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>78287</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>113746</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>57259</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1138588</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>8862</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1090191</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>225574</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>830026</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>604452</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>570853</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>737257</v>
+      </c>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="8">
+        <v>240865</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>17341</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>44077</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>17821</v>
+      </c>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9">
+        <v>18885</v>
+      </c>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="3">
+        <v>63109</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>63109</v>
+      </c>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>412417</v>
+      </c>
+      <c r="C6" s="2">
+        <v>802554</v>
+      </c>
+      <c r="D6" s="2">
+        <v>778001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1046448</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1352448</v>
+      </c>
+      <c r="G6" s="2">
+        <v>295584</v>
+      </c>
+      <c r="H6" s="2">
+        <v>49294</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5899</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5668</v>
+      </c>
+      <c r="K6" s="2">
+        <v>354192</v>
+      </c>
+      <c r="L6" s="2">
+        <v>22720</v>
+      </c>
+      <c r="M6" s="2">
+        <v>54621</v>
+      </c>
+      <c r="N6" s="2">
+        <v>317039</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
+        <v>754975</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>676197</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6619</v>
+      </c>
+      <c r="S6" s="2">
+        <v>27106</v>
+      </c>
+      <c r="T6" s="2">
+        <v>76539</v>
+      </c>
+      <c r="U6" s="2">
+        <v>431</v>
+      </c>
+      <c r="V6" s="3">
+        <v>273212</v>
+      </c>
+      <c r="W6" s="2">
+        <v>365501</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>789</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>62497</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>50199</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>152369</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>161296</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>106625</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>43554</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>876156</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>8651</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>928361</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>25792</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>804234</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>830026</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>412417</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>669513</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="8">
+        <v>221043</v>
+      </c>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="9">
+        <v>22267</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>5067</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>3419</v>
+      </c>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9">
+        <v>3574</v>
+      </c>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="3">
+        <v>362114</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>59726</v>
+      </c>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF67E041-30D7-4984-8F31-1D35FACA1998}">
   <dimension ref="A1:I48"/>
   <sheetViews>
@@ -2237,16 +3404,16 @@
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
@@ -2362,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>63</v>
       </c>
@@ -2391,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>64</v>
       </c>
@@ -2420,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -2449,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
@@ -2478,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
@@ -2507,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
@@ -2536,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>69</v>
       </c>
@@ -2565,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
@@ -2626,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
@@ -2655,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>73</v>
       </c>
@@ -2684,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>74</v>
       </c>
@@ -2713,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>75</v>
       </c>
@@ -2742,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>76</v>
       </c>
@@ -2771,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
@@ -2800,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
@@ -2829,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
@@ -2858,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
@@ -2887,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
@@ -2916,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>81</v>
       </c>
@@ -2948,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
@@ -2977,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
@@ -3006,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
@@ -3035,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
@@ -3064,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -3093,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>87</v>
       </c>
@@ -3122,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>88</v>
       </c>
@@ -3151,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>89</v>
       </c>
@@ -3180,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>90</v>
       </c>
@@ -3209,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>91</v>
       </c>
@@ -3238,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>92</v>
       </c>
@@ -3267,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>93</v>
       </c>
@@ -3296,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>94</v>
       </c>
@@ -3325,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>95</v>
       </c>
@@ -3354,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>96</v>
       </c>
@@ -3383,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>97</v>
       </c>
@@ -3412,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>98</v>
       </c>
@@ -3441,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>99</v>
       </c>
@@ -3470,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>100</v>
       </c>
@@ -3499,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>101</v>
       </c>
@@ -3528,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>102</v>
       </c>
@@ -3557,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>103</v>
       </c>
@@ -3586,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>104</v>
       </c>
@@ -3611,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>105</v>
       </c>
@@ -3645,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -3654,18 +4821,18 @@
       <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +4861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -3723,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -3752,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -3781,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -3810,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -3839,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -3868,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -3897,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>116</v>
       </c>
@@ -3926,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -3955,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -3984,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -4013,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -4042,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -4071,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -4100,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -4129,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>123</v>
       </c>
@@ -4158,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -4187,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -4216,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -4245,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -4274,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>128</v>
       </c>
@@ -4303,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>129</v>
       </c>
@@ -4332,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
@@ -4361,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -4390,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -4419,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>132</v>
       </c>
@@ -4448,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>133</v>
       </c>
@@ -4477,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -4506,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>135</v>
       </c>
@@ -4535,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -4564,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>137</v>
       </c>
@@ -4593,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>138</v>
       </c>
@@ -4622,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
@@ -4651,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
@@ -4680,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
@@ -4709,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\OneDrive\Documents\Info 248\Project\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53455A6D-1E80-4179-814A-F86CB7EE268C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B7B1D-CF51-404E-8196-38D5CDD01591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflows" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -465,6 +465,168 @@
   </si>
   <si>
     <t>Tuitionfees</t>
+  </si>
+  <si>
+    <t>donatedAsset</t>
+  </si>
+  <si>
+    <t>LossonDisposalsCfCapitalAssets</t>
+  </si>
+  <si>
+    <t>Changes.in.deferred.outflows.and.inflows.related.to.employee.benefits</t>
+  </si>
+  <si>
+    <t>changes.in.deferred.outflows.related.to.future.revenues</t>
+  </si>
+  <si>
+    <t>Changes.in.deferred.outflows.related.to.assets</t>
+  </si>
+  <si>
+    <t>other.postemployment.benefits.liability</t>
+  </si>
+  <si>
+    <t>pension.liability</t>
+  </si>
+  <si>
+    <t>other.liability</t>
+  </si>
+  <si>
+    <t>unearned.revenues.and.advances</t>
+  </si>
+  <si>
+    <t>accounts.payable.and.accrued.expenses</t>
+  </si>
+  <si>
+    <t>other.assets</t>
+  </si>
+  <si>
+    <t>Accounts.receivable.net</t>
+  </si>
+  <si>
+    <t>changes.in.assets.and.liabilities:</t>
+  </si>
+  <si>
+    <t>Deprecation.and.amortization.expense</t>
+  </si>
+  <si>
+    <t>adjustments.to.reconcile.loss.to.net.cash.use.by.operating.activites</t>
+  </si>
+  <si>
+    <t>Operating.loss</t>
+  </si>
+  <si>
+    <t>Reconciliations.of.operating.loss.net.used.by.operating.activities</t>
+  </si>
+  <si>
+    <t>Cash.and.cash.equivalents.end.of.the.year</t>
+  </si>
+  <si>
+    <t>Cash.and.cash.equivalents.beginning.of.the.year</t>
+  </si>
+  <si>
+    <t>Net.Decrease.in.cash.and.cash.equivalents</t>
+  </si>
+  <si>
+    <t>Interest.on.investments</t>
+  </si>
+  <si>
+    <t>Proceeds.from.sales.an.maturities.of.investments</t>
+  </si>
+  <si>
+    <t>cash.flow.from.investing.activities</t>
+  </si>
+  <si>
+    <t>interest.paid.of.leases</t>
+  </si>
+  <si>
+    <t>principal.paid.capital.debt.and.leases</t>
+  </si>
+  <si>
+    <t>retirement.of.debt</t>
+  </si>
+  <si>
+    <t>capital.capital.assets.and.construction</t>
+  </si>
+  <si>
+    <t>capital.grants.contracts.and.Gift</t>
+  </si>
+  <si>
+    <t>capital.appropriations</t>
+  </si>
+  <si>
+    <t>Bond.issuance.cost.paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capital.lease.payment.recieved </t>
+  </si>
+  <si>
+    <t>proceeds.from.preniums.recieved</t>
+  </si>
+  <si>
+    <t>Proceeds.from.capital.debt</t>
+  </si>
+  <si>
+    <t>Cash.Flows.from.capital.and.otherfincancingactivities</t>
+  </si>
+  <si>
+    <t>Student.Orginazation.agency.transactions</t>
+  </si>
+  <si>
+    <t>Nonoperating.federal.grants</t>
+  </si>
+  <si>
+    <t>Grants.contracts.gifts.for.other.capital.purposes</t>
+  </si>
+  <si>
+    <t>federal.appropriations</t>
+  </si>
+  <si>
+    <t>State.appropriations</t>
+  </si>
+  <si>
+    <t>Cash.flows.from.noncapital.financing.activities</t>
+  </si>
+  <si>
+    <t>Other.receipts.net</t>
+  </si>
+  <si>
+    <t>Sales.and.services.public.service.activities</t>
+  </si>
+  <si>
+    <t>Sales.and.service.independent.operations</t>
+  </si>
+  <si>
+    <t>Sales.and.services.educational</t>
+  </si>
+  <si>
+    <t>Auxillary.Entreprises</t>
+  </si>
+  <si>
+    <t>CollectioNs of.loans.and.students.and.employees</t>
+  </si>
+  <si>
+    <t>Loans.issued.to.students.and.employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in1000</t>
+  </si>
+  <si>
+    <t>Cash.flows.from.operating.activities</t>
+  </si>
+  <si>
+    <t>Grants.and.contracts</t>
+  </si>
+  <si>
+    <t>Payment.to.suppliers</t>
+  </si>
+  <si>
+    <t>Payment.to.employees</t>
+  </si>
+  <si>
+    <t>Payment.for.benefits</t>
+  </si>
+  <si>
+    <t>Payments.for.shcholarships.and.fellowships</t>
   </si>
 </sst>
 </file>
@@ -977,17 +1139,17 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="A1:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1443,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1542,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1563,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1632,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1693,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1739,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1762,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1785,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1808,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -1854,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1900,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -1917,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -1959,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2028,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2047,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2070,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
@@ -2089,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2121,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -2136,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2153,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2176,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2199,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2216,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -2242,173 +2404,173 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AT1" s="9" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="AU1" s="9" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="AV1" s="9" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="BC1" s="3" t="s">
         <v>55</v>
@@ -2417,13 +2579,13 @@
         <v>56</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
@@ -2599,7 +2761,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -2763,7 +2925,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -2919,7 +3081,7 @@
         <v>85632</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -3069,7 +3231,7 @@
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -3217,7 +3379,7 @@
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3404,16 +3566,16 @@
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
@@ -3529,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>63</v>
       </c>
@@ -3558,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>64</v>
       </c>
@@ -3587,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -3616,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
@@ -3674,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
@@ -3703,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -3761,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
@@ -3793,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
@@ -3822,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>73</v>
       </c>
@@ -3851,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>74</v>
       </c>
@@ -3880,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>75</v>
       </c>
@@ -3909,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>76</v>
       </c>
@@ -3938,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
@@ -3967,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
@@ -3996,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
@@ -4025,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
@@ -4054,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
@@ -4083,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>81</v>
       </c>
@@ -4115,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
@@ -4144,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
@@ -4173,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
@@ -4202,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
@@ -4231,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -4260,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>87</v>
       </c>
@@ -4289,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>88</v>
       </c>
@@ -4318,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>89</v>
       </c>
@@ -4347,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>90</v>
       </c>
@@ -4376,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>91</v>
       </c>
@@ -4405,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>92</v>
       </c>
@@ -4434,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>93</v>
       </c>
@@ -4463,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>94</v>
       </c>
@@ -4492,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>95</v>
       </c>
@@ -4521,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>96</v>
       </c>
@@ -4550,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>97</v>
       </c>
@@ -4579,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>98</v>
       </c>
@@ -4608,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>99</v>
       </c>
@@ -4637,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>100</v>
       </c>
@@ -4666,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>101</v>
       </c>
@@ -4695,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>102</v>
       </c>
@@ -4724,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>103</v>
       </c>
@@ -4753,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>104</v>
       </c>
@@ -4778,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>105</v>
       </c>
@@ -4821,18 +4983,18 @@
       <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +5023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -4890,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -4919,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -4948,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -4977,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -5006,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -5035,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -5064,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>116</v>
       </c>
@@ -5093,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5122,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -5180,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -5209,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -5238,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -5267,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -5296,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>123</v>
       </c>
@@ -5325,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -5354,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -5383,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -5412,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -5441,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>128</v>
       </c>
@@ -5470,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>129</v>
       </c>
@@ -5499,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
@@ -5528,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -5557,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -5586,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>132</v>
       </c>
@@ -5615,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>133</v>
       </c>
@@ -5644,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -5673,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>135</v>
       </c>
@@ -5702,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -5731,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>137</v>
       </c>
@@ -5760,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>138</v>
       </c>
@@ -5789,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
@@ -5818,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
@@ -5847,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
@@ -5876,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\OneDrive\Documents\Info 248\Project\UMass-Financial-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B7B1D-CF51-404E-8196-38D5CDD01591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10296B00-59C4-4F57-BDB8-6B6FE2EA2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflows" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -503,9 +503,6 @@
     <t>Accounts.receivable.net</t>
   </si>
   <si>
-    <t>changes.in.assets.and.liabilities:</t>
-  </si>
-  <si>
     <t>Deprecation.and.amortization.expense</t>
   </si>
   <si>
@@ -602,15 +599,9 @@
     <t>Auxillary.Entreprises</t>
   </si>
   <si>
-    <t>CollectioNs of.loans.and.students.and.employees</t>
-  </si>
-  <si>
     <t>Loans.issued.to.students.and.employees</t>
   </si>
   <si>
-    <t xml:space="preserve"> in1000</t>
-  </si>
-  <si>
     <t>Cash.flows.from.operating.activities</t>
   </si>
   <si>
@@ -627,6 +618,24 @@
   </si>
   <si>
     <t>Payments.for.shcholarships.and.fellowships</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Year</t>
+  </si>
+  <si>
+    <t>assets.acquire.and.included.in.accounts.payble.and.other.liabilities</t>
+  </si>
+  <si>
+    <t>Collections.of.loans.and.students.and.employees</t>
+  </si>
+  <si>
+    <t>Purchases.of.investments</t>
+  </si>
+  <si>
+    <t>changes.in.assets.and.liabilities</t>
+  </si>
+  <si>
+    <t>Supplemental.disclosure.of.noncash.activities</t>
   </si>
 </sst>
 </file>
@@ -1139,17 +1148,17 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="A1:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -2403,144 +2412,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F10A59-B50C-4A91-9401-307A1DA3C5C2}">
   <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="AS1" s="9" t="s">
         <v>155</v>
@@ -2573,10 +2582,10 @@
         <v>146</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="BE1" s="4" t="s">
         <v>145</v>
@@ -2585,7 +2594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>85632</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -3231,7 +3240,7 @@
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -3379,7 +3388,7 @@
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3566,16 +3575,16 @@
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>63</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>64</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>69</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>73</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>74</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>75</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>76</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>81</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
@@ -4306,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>87</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>88</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>89</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>90</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>91</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>92</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>93</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>94</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>95</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>96</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>97</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>98</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>99</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>100</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>101</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>102</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>103</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>104</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>105</v>
       </c>
@@ -4983,18 +4992,18 @@
       <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>116</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -5313,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>123</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -5516,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>128</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>129</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>132</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>133</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>135</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>137</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>138</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
@@ -6038,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\OneDrive\Documents\Info 248\Project\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B7B1D-CF51-404E-8196-38D5CDD01591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3148190-74A4-4FE8-A640-4840C7173BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,9 +608,6 @@
     <t>Loans.issued.to.students.and.employees</t>
   </si>
   <si>
-    <t xml:space="preserve"> in1000</t>
-  </si>
-  <si>
     <t>Cash.flows.from.operating.activities</t>
   </si>
   <si>
@@ -627,6 +624,9 @@
   </si>
   <si>
     <t>Payments.for.shcholarships.and.fellowships</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> year</t>
   </si>
 </sst>
 </file>
@@ -2404,35 +2404,35 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>190</v>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\OneDrive\Documents\Info 248\Project\UMass-Financial-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3148190-74A4-4FE8-A640-4840C7173BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0C3B6-6D1A-4CDC-A8EF-C49F3DE0B7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflows" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -602,9 +602,6 @@
     <t>Auxillary.Entreprises</t>
   </si>
   <si>
-    <t>CollectioNs of.loans.and.students.and.employees</t>
-  </si>
-  <si>
     <t>Loans.issued.to.students.and.employees</t>
   </si>
   <si>
@@ -627,6 +624,18 @@
   </si>
   <si>
     <t xml:space="preserve"> year</t>
+  </si>
+  <si>
+    <t>CollectioNs.of.loans.and.students.and.employees</t>
+  </si>
+  <si>
+    <t>Purchases.of.investments</t>
+  </si>
+  <si>
+    <t>Supplemental.disclosure.of.noncash.activities</t>
+  </si>
+  <si>
+    <t>assets.acquired.and.included.in.accounts.payble.and.other.liabilities</t>
   </si>
 </sst>
 </file>
@@ -1139,17 +1148,17 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="A1:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
@@ -2404,41 +2413,41 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>188</v>
@@ -2516,7 +2525,7 @@
         <v>164</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>163</v>
@@ -2573,10 +2582,10 @@
         <v>146</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="BE1" s="4" t="s">
         <v>145</v>
@@ -2585,7 +2594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
@@ -2761,7 +2770,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>85632</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -3231,7 +3240,7 @@
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -3379,7 +3388,7 @@
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
@@ -3566,16 +3575,16 @@
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>62</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>63</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>64</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>67</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>69</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>73</v>
       </c>
@@ -4013,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>74</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>75</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>76</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>79</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>81</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
@@ -4306,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>85</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>86</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>87</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>88</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>89</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>90</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>91</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>92</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>93</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>94</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>95</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>96</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>97</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>98</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>99</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>100</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>101</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>102</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>103</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>104</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>105</v>
       </c>
@@ -4983,18 +4992,18 @@
       <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>116</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>117</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
@@ -5313,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>121</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -5458,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>123</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>124</v>
       </c>
@@ -5516,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>126</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>128</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>129</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>132</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>133</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>135</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>137</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>138</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
@@ -5980,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
@@ -6038,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0C3B6-6D1A-4CDC-A8EF-C49F3DE0B7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C596E49-EAF1-4618-B07D-A83D0BAEA201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cashflows" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="202">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Nets</t>
   </si>
   <si>
-    <t>Cash flows from operating activities</t>
-  </si>
-  <si>
     <t>Tuition and fees</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Other receipts, net</t>
   </si>
   <si>
-    <t>Cash flows from noncapital financing activities</t>
-  </si>
-  <si>
     <t>State appropriations</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Student Orginazation agency transactions</t>
   </si>
   <si>
-    <t>Cash Flows from capital and other fincancing activities</t>
-  </si>
-  <si>
     <t>Proceeds from capital debt</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>interest paid of leases</t>
   </si>
   <si>
-    <t>cash flow from investing activities</t>
-  </si>
-  <si>
     <t>Proceeds from sales and maturities of investments</t>
   </si>
   <si>
@@ -146,27 +134,9 @@
     <t>Purchases of investments</t>
   </si>
   <si>
-    <t>Net Decrease in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents: begining of the year</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents: end of the year</t>
-  </si>
-  <si>
-    <t>Reconciliations of operating loss net used by operating activities</t>
-  </si>
-  <si>
-    <t>Operating loss</t>
-  </si>
-  <si>
     <t>adjustments to reconcile loss to net cash use by operating activites:</t>
   </si>
   <si>
-    <t>Deprecation and amortization expense</t>
-  </si>
-  <si>
     <t>changes in assets and liabilities:</t>
   </si>
   <si>
@@ -200,9 +170,6 @@
     <t>Changes in deferred outflows and inflows related to employee benefits</t>
   </si>
   <si>
-    <t>Supplemental disclosure of noncash activities</t>
-  </si>
-  <si>
     <t>assets acquired and included in accounts payble and other liabilities</t>
   </si>
   <si>
@@ -636,6 +603,42 @@
   </si>
   <si>
     <t>assets.acquired.and.included.in.accounts.payble.and.other.liabilities</t>
+  </si>
+  <si>
+    <t>TuitionAndFees</t>
+  </si>
+  <si>
+    <t>CashFlowsFromOperatingActivities</t>
+  </si>
+  <si>
+    <t>CashFlowsFromNoncapitalFinancingActivities</t>
+  </si>
+  <si>
+    <t>CashFlowsFromCapitalAndOtherFincancingActivities</t>
+  </si>
+  <si>
+    <t>CashFlowFromInvestingActivities</t>
+  </si>
+  <si>
+    <t>NetDecreaseInCashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>CashAndCashEquivalentsBeginingOfYear</t>
+  </si>
+  <si>
+    <t>CashAndCashEquivalentsEndOfYear</t>
+  </si>
+  <si>
+    <t>ReconciliationsOfOperatingLossNetUsedByOperatingActivities</t>
+  </si>
+  <si>
+    <t>OperatingLoss</t>
+  </si>
+  <si>
+    <t>DeprecationAndAmortizationExpense</t>
+  </si>
+  <si>
+    <t>SupplementalDisclosureOfNoncashActivities</t>
   </si>
 </sst>
 </file>
@@ -1143,9 +1146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EEE0AD-BF36-4F79-89AD-7234422D9C52}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="A1:G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3">
         <v>508876</v>
@@ -1206,7 +1209,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2">
         <v>985247</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>587539</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>950398</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1603488</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>480477</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>76927</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>8882</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>17660</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>441563</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>35360</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>59893</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>293383</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>190651</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="B16" s="3">
         <v>922690</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>780221</v>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>7004</v>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>52308</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>84454</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>1297</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="B22" s="3">
         <v>519087</v>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>278041</v>
@@ -1685,7 +1688,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>47633</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>4252</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>1430</v>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>25500</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>4562</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>382048</v>
@@ -1805,7 +1808,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>254910</v>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>103170</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>137517</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B33" s="3">
         <v>7224</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>1350013</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>47623</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>1404860</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="B37" s="3">
         <v>112497</v>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="B38" s="7">
         <v>430389</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="B39" s="7">
         <v>317892</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="B40" s="3">
         <v>508876</v>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="B41" s="4">
         <v>817436</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4">
         <v>528287</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B43" s="8">
         <v>276638</v>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B44" s="8">
         <v>251649</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B45" s="9">
         <v>29219</v>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B46" s="9">
         <v>23761</v>
@@ -2178,7 +2181,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B47" s="9">
         <v>5335</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B48" s="9">
         <v>57315</v>
@@ -2220,7 +2223,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B49" s="9">
         <v>26702</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9">
         <v>10915</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B51" s="9">
         <v>98402</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4">
         <v>1782</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4">
         <v>76839</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4">
         <v>139406</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="B55" s="3">
         <v>52279</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4">
         <v>36558</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4">
         <v>14331</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4">
         <v>1390</v>
@@ -2412,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F10A59-B50C-4A91-9401-307A1DA3C5C2}">
   <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2420,178 +2423,178 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="AU1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="BE1" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.35">
@@ -3604,10 +3607,10 @@
         <v>2015</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>1</v>
@@ -3615,7 +3618,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" s="18">
         <v>2453354</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="21">
         <v>894904</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B4" s="23">
         <v>328845</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B5" s="21">
         <v>593086</v>
@@ -3731,7 +3734,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B6" s="21">
         <v>34984</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" s="21">
         <v>441795</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B8" s="21">
         <v>488585</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B9" s="23">
         <v>59893</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B10" s="23">
         <v>291085</v>
@@ -3876,7 +3879,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B11" s="23">
         <v>137607</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B12" s="18">
         <v>3270790</v>
@@ -3934,7 +3937,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B13" s="24">
         <v>2716546</v>
@@ -3966,7 +3969,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25">
         <v>901235</v>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25">
         <v>487725</v>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B16" s="25">
         <v>83566</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B17" s="25">
         <v>181462</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B18" s="25">
         <v>158991</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B19" s="25">
         <v>269126</v>
@@ -4140,7 +4143,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B20" s="25">
         <v>246725</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B21" s="25">
         <v>49509</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B22" s="25">
         <v>49509</v>
@@ -4227,7 +4230,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B23" s="24">
         <v>338207</v>
@@ -4256,7 +4259,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B24" s="24">
         <v>274606</v>
@@ -4288,7 +4291,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B25" s="25">
         <v>47785</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B26" s="25">
         <v>226821</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B27" s="18">
         <v>817436</v>
@@ -4375,7 +4378,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B28" s="18">
         <v>895509</v>
@@ -4404,7 +4407,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B29" s="26">
         <v>7004</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B30" s="26">
         <v>780221</v>
@@ -4462,7 +4465,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B31" s="26">
         <v>43705</v>
@@ -4491,7 +4494,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B32" s="26">
         <v>48943</v>
@@ -4520,7 +4523,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B33" s="26">
         <v>18082</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B34" s="26">
         <v>27741</v>
@@ -4578,7 +4581,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B35" s="26">
         <v>116217</v>
@@ -4607,7 +4610,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B36" s="26">
         <v>84454</v>
@@ -4636,7 +4639,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B37" s="26">
         <v>1576</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B38" s="28">
         <v>78073</v>
@@ -4694,7 +4697,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B39" s="18">
         <v>35946</v>
@@ -4723,7 +4726,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B40" s="29">
         <v>25500</v>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B41" s="29">
         <v>13165</v>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B42" s="29">
         <v>13467</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B43" s="29">
         <v>16186</v>
@@ -4839,7 +4842,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B44" s="18">
         <v>114019</v>
@@ -4868,7 +4871,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B45" s="31">
         <v>2388884</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B46" s="31">
         <v>0</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B47" s="31">
         <v>2388884</v>
@@ -4951,7 +4954,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B48" s="24">
         <v>2502903</v>
@@ -5023,18 +5026,18 @@
         <v>2015</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B2" s="13">
         <v>7367444</v>
@@ -5063,7 +5066,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B3" s="11">
         <v>921528</v>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
         <v>84986</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2">
         <v>12560</v>
@@ -5150,7 +5153,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>286028</v>
@@ -5179,7 +5182,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2">
         <v>489907</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2">
         <v>48101</v>
@@ -5237,7 +5240,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B9" s="11">
         <v>6445862</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2">
         <v>8420</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2">
         <v>211926</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2">
         <v>20417</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <v>55123</v>
@@ -5382,7 +5385,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2">
         <v>869663</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2">
         <v>5164200</v>
@@ -5440,7 +5443,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2">
         <v>136530</v>
@@ -5469,7 +5472,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3">
         <v>356683</v>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3">
         <v>4859979</v>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4">
         <v>799310</v>
@@ -5556,7 +5559,7 @@
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B20" s="8">
         <v>325642</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B21" s="8">
         <v>61340</v>
@@ -5614,7 +5617,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B22" s="8">
         <v>34188</v>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B23" s="8">
         <v>70458</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4">
         <v>4060699</v>
@@ -5701,7 +5704,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B25" s="8">
         <v>61658</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B26" s="8">
         <v>2700490</v>
@@ -5759,7 +5762,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B27" s="8">
         <v>55622</v>
@@ -5788,7 +5791,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B28" s="8">
         <v>409319</v>
@@ -5817,7 +5820,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B29" s="8">
         <v>718955</v>
@@ -5846,7 +5849,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B30" s="8">
         <v>114625</v>
@@ -5875,7 +5878,7 @@
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3">
         <v>361245</v>
@@ -5904,7 +5907,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6">
         <v>2343872</v>
@@ -5933,7 +5936,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B33" s="6">
         <v>234640</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B34" s="10">
         <v>28617</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B35" s="10">
         <v>206023</v>
@@ -6020,7 +6023,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B36" s="6">
         <v>75609</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B37" s="5">
         <v>2502903</v>

--- a/UMass Balance sheets.xlsx
+++ b/UMass Balance sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\UMass-Financial-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C596E49-EAF1-4618-B07D-A83D0BAEA201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDA5DB9-0419-4940-84AB-E99CB6A7593B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
   <si>
     <t xml:space="preserve"> in $1000</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>SupplementalDisclosureOfNoncashActivities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Year</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1150,8 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
